--- a/design-pattern/base.xlsx
+++ b/design-pattern/base.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="类关系与法则" sheetId="1" r:id="rId1"/>
     <sheet name="创建型模式" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="结构型模式" sheetId="3" r:id="rId3"/>
+    <sheet name="行为型模式" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>类关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +209,93 @@
   <si>
     <t>建造者模式（Builder）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题接口，被真实主题和代理主题继承，真实对象作为代理对象的组成，但不能传入，这样对真是主题进行了权限访问控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件接口，具体构件继承，抽象装饰继承（但可以传入具体构建，这个就是与代理模式的区别），具体装饰可以对原有构建接口进行增加功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类适配器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象适配器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥接模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享元模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明式组合模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全式组合模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板方法模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展为组合命令模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任链模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.纯的职责链模式：一个请求必须被某一个处理者对象所接收，且一个具体处理者对某个请求的处理只能采用以下两种行为之一：自己处理（承担责任）；把责任推给下家处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.不纯的职责链模式：允许出现某一个具体处理者对象在承担了请求的一部分责任后又将剩余的责任传给下家的情况，且一个请求可以最终不被任何接收端对象所接收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责链模式存在以下两种情况</t>
   </si>
 </sst>
 </file>
@@ -598,6 +686,674 @@
         <a:xfrm>
           <a:off x="628650" y="14639925"/>
           <a:ext cx="5734050" cy="5867400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676275" y="504825"/>
+          <a:ext cx="3800475" cy="2038244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="790575" y="3286125"/>
+          <a:ext cx="4257675" cy="3414049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>36532</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="9934575"/>
+          <a:ext cx="4475182" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>4803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1057276" y="7419976"/>
+          <a:ext cx="4076700" cy="2157452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>64447</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600075" y="13001626"/>
+          <a:ext cx="4665022" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>99269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1047750" y="16002001"/>
+          <a:ext cx="3724275" cy="4099768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>135847</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="20431126"/>
+          <a:ext cx="4936447" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>106773</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000126" y="25003125"/>
+          <a:ext cx="3707222" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>68507</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1104900" y="29194125"/>
+          <a:ext cx="3764207" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>157117</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676276" y="352425"/>
+          <a:ext cx="3681366" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66007</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="3638550"/>
+          <a:ext cx="5552407" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>29</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="923925" y="6448426"/>
+          <a:ext cx="3676679" cy="4324350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>197606</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="990601" y="11191875"/>
+          <a:ext cx="5007730" cy="3552825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>86141</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="15144751"/>
+          <a:ext cx="5286791" cy="5314950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
@@ -1159,14 +1915,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D204"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="AF223" sqref="AF223"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="D174" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7">
+      <c r="E145" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="G146" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7">
+      <c r="G147" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7">
+      <c r="G148" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/design-pattern/base.xlsx
+++ b/design-pattern/base.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>类关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,54 @@
   </si>
   <si>
     <t>职责链模式存在以下两种情况</t>
+  </si>
+  <si>
+    <t>状态模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展：一般多个状态放到context中作为享元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展：一般中介者不定义成抽象，而是直接用单例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展：与组合模式结合，可以通过迭代器对整棵树进行访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展：可以在对象结构中与组合模式（树）和迭代器模式联合使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩张：用原形模式达到复制自己作为备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1354,6 +1402,570 @@
         <a:xfrm>
           <a:off x="800100" y="15144751"/>
           <a:ext cx="5286791" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62942</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="933451" y="21707475"/>
+          <a:ext cx="4130116" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>75293</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1495425" y="24603075"/>
+          <a:ext cx="4780643" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>24454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="27574876"/>
+          <a:ext cx="3400425" cy="2739078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>75180</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="31003875"/>
+          <a:ext cx="4075680" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114106</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1600201" y="34004251"/>
+          <a:ext cx="4314630" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16176</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742951" y="37157025"/>
+          <a:ext cx="3073700" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>143997</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1676401" y="40081200"/>
+          <a:ext cx="4468346" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="43005375"/>
+          <a:ext cx="3578225" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>38444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1781176" y="46501050"/>
+          <a:ext cx="4000499" cy="4115144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>164039</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600075" y="51292126"/>
+          <a:ext cx="3764489" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>39396</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1038225" y="54473475"/>
+          <a:ext cx="4801896" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>173216</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676276" y="58007250"/>
+          <a:ext cx="4297540" cy="2371725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1660,7 +2272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -1776,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
@@ -1917,7 +2529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D204"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="AF223" sqref="AF223"/>
     </sheetView>
   </sheetViews>
@@ -2001,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G148"/>
+  <dimension ref="A2:G405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="I153" sqref="I153"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="J428" sqref="J428:K428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -2037,29 +2649,90 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="5:7">
+    <row r="145" spans="1:7">
       <c r="E145" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="5:7">
+    <row r="146" spans="1:7">
       <c r="G146" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="5:7">
+    <row r="147" spans="1:7">
       <c r="G147" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="148" spans="5:7">
+    <row r="148" spans="1:7">
       <c r="G148" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7">
+      <c r="G171" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="237" spans="6:6">
+      <c r="F237" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="6:6">
+      <c r="F279" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="324" spans="6:6">
+      <c r="F324" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4">
+      <c r="D380" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>